--- a/Labdata/Load_multiple_sheets_of_excel.xlsx
+++ b/Labdata/Load_multiple_sheets_of_excel.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE24820-8B15-4467-A1FF-8324F064D7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CA" sheetId="18" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Ename</t>
   </si>
@@ -37,11 +38,14 @@
   <si>
     <t>Ram3</t>
   </si>
+  <si>
+    <t>Sita</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,16 +356,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,7 +373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -383,16 +387,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -414,16 +418,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,12 +435,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>3500</v>
       </c>
     </row>
   </sheetData>
